--- a/BBCA_Financial_Data.xlsx
+++ b/BBCA_Financial_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/42b15deed5b5fc69/Desktop/Almas_Final_Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/42b15deed5b5fc69/Desktop/Almas_Final_Project-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="114" documentId="8_{E4FA3716-1516-4087-AE4B-343A4641CED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7FB15D5-41CD-4EFA-B445-94FF00A77154}"/>
+  <xr:revisionPtr revIDLastSave="370" documentId="8_{E4FA3716-1516-4087-AE4B-343A4641CED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A57C007-1C41-4677-905C-0B7A2F93ED6A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{703FF88A-533F-4B9C-B92B-C8B5D07CA1AB}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{703FF88A-533F-4B9C-B92B-C8B5D07CA1AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>YEAR</t>
   </si>
@@ -47,26 +47,26 @@
     <t>NET_INCOME</t>
   </si>
   <si>
+    <t>ROE</t>
+  </si>
+  <si>
     <t>NIM</t>
   </si>
   <si>
-    <t>ROE</t>
+    <t>DEBT_TO_EQUITY</t>
   </si>
   <si>
-    <t>ROA</t>
-  </si>
-  <si>
-    <t>TOTAL_ASSETS</t>
-  </si>
-  <si>
-    <t>EPS</t>
+    <t>MARKET_INDEX_RETURN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +81,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -97,7 +103,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -120,19 +126,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E8DEB3-5744-460A-9FD1-2346A8474299}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:G7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -482,37 +530,35 @@
     <col min="2" max="2" width="12.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.7265625" customWidth="1"/>
-    <col min="5" max="5" width="7.26953125" customWidth="1"/>
-    <col min="8" max="8" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>2024</v>
       </c>
@@ -520,25 +566,22 @@
         <v>9800</v>
       </c>
       <c r="C2" s="2">
-        <v>76962905000000</v>
-      </c>
-      <c r="D2" s="1">
-        <v>445</v>
-      </c>
-      <c r="E2" s="3">
+        <v>76962905</v>
+      </c>
+      <c r="D2" s="4">
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="F2" s="3">
+      <c r="E2" s="4">
         <v>0.24560000000000001</v>
       </c>
-      <c r="G2" s="3">
-        <v>4.8599999999999997E-2</v>
-      </c>
-      <c r="H2" s="2">
-        <v>76962905000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F2" s="14">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="G2">
+        <v>-3.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>2023</v>
       </c>
@@ -546,25 +589,22 @@
         <v>9400</v>
       </c>
       <c r="C3" s="2">
-        <v>70452210000000</v>
-      </c>
-      <c r="D3" s="1">
-        <v>395</v>
-      </c>
-      <c r="E3" s="3">
+        <v>70452210</v>
+      </c>
+      <c r="D3" s="4">
         <v>5.5399999999999998E-2</v>
       </c>
-      <c r="F3" s="3">
+      <c r="E3" s="4">
         <v>0.2349</v>
       </c>
-      <c r="G3" s="3">
-        <v>4.4600000000000001E-2</v>
-      </c>
-      <c r="H3" s="2">
-        <v>70452210000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F3" s="14">
+        <v>4.82</v>
+      </c>
+      <c r="G3">
+        <v>6.1600000000000002E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2022</v>
       </c>
@@ -572,25 +612,22 @@
         <v>8550</v>
       </c>
       <c r="C4" s="2">
-        <v>60192381000000</v>
-      </c>
-      <c r="D4" s="1">
-        <v>330</v>
-      </c>
-      <c r="E4" s="3">
+        <v>60192381</v>
+      </c>
+      <c r="D4" s="4">
         <v>5.3400000000000003E-2</v>
       </c>
-      <c r="F4" s="3">
+      <c r="E4" s="9">
         <v>0.217</v>
       </c>
-      <c r="G4" s="3">
-        <v>3.9100000000000003E-2</v>
-      </c>
-      <c r="H4" s="2">
-        <v>60192381000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F4" s="14">
+        <v>4.95</v>
+      </c>
+      <c r="G4">
+        <v>4.0899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>2021</v>
       </c>
@@ -598,25 +635,22 @@
         <v>7300</v>
       </c>
       <c r="C5" s="2">
-        <v>52786923000000</v>
-      </c>
-      <c r="D5" s="1">
-        <v>255</v>
-      </c>
-      <c r="E5" s="3">
+        <v>52786923</v>
+      </c>
+      <c r="D5" s="9">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F5" s="3">
+      <c r="E5" s="4">
         <v>0.1825</v>
       </c>
-      <c r="G5" s="3">
-        <v>3.4099999999999998E-2</v>
-      </c>
-      <c r="H5" s="2">
-        <v>52786923000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F5" s="15">
+        <v>5.03</v>
+      </c>
+      <c r="G5">
+        <v>0.1008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>2020</v>
       </c>
@@ -624,25 +658,22 @@
         <v>6770</v>
       </c>
       <c r="C6" s="2">
-        <v>51090899000000</v>
-      </c>
-      <c r="D6" s="1">
-        <v>220</v>
-      </c>
-      <c r="E6" s="3">
+        <v>51090899</v>
+      </c>
+      <c r="D6" s="9">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="F6" s="3">
+      <c r="E6" s="4">
         <v>0.16539999999999999</v>
       </c>
-      <c r="G6" s="3">
-        <v>3.32E-2</v>
-      </c>
-      <c r="H6" s="2">
-        <v>51090899000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F6" s="14">
+        <v>4.8</v>
+      </c>
+      <c r="G6">
+        <v>-5.11E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>2019</v>
       </c>
@@ -650,26 +681,204 @@
         <v>6660</v>
       </c>
       <c r="C7" s="2">
-        <v>47414681000000</v>
-      </c>
-      <c r="D7" s="1">
-        <v>231</v>
-      </c>
-      <c r="E7" s="3">
+        <v>47414681</v>
+      </c>
+      <c r="D7" s="4">
         <v>6.2399999999999997E-2</v>
       </c>
-      <c r="F7" s="3">
+      <c r="E7" s="4">
         <v>0.1797</v>
       </c>
-      <c r="G7" s="3">
-        <v>4.02E-2</v>
-      </c>
-      <c r="H7" s="2">
-        <v>47414681000000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C10" s="5"/>
+      <c r="F7" s="14">
+        <v>4.71</v>
+      </c>
+      <c r="G7">
+        <v>1.6199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="6">
+        <v>2018</v>
+      </c>
+      <c r="B8" s="5">
+        <v>5200</v>
+      </c>
+      <c r="C8" s="5">
+        <v>25855200</v>
+      </c>
+      <c r="D8" s="8">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="F8" s="14">
+        <v>4.8</v>
+      </c>
+      <c r="G8">
+        <v>-2.47E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="6">
+        <v>2017</v>
+      </c>
+      <c r="B9" s="5">
+        <v>4300</v>
+      </c>
+      <c r="C9" s="5">
+        <v>23310000</v>
+      </c>
+      <c r="D9" s="10">
+        <v>6.2E-2</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.1774</v>
+      </c>
+      <c r="F9" s="14">
+        <v>4.83</v>
+      </c>
+      <c r="G9">
+        <v>0.20180000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="6">
+        <v>2016</v>
+      </c>
+      <c r="B10" s="11">
+        <v>3260</v>
+      </c>
+      <c r="C10" s="12">
+        <v>20642836</v>
+      </c>
+      <c r="D10" s="8">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="E10">
+        <v>0.1764</v>
+      </c>
+      <c r="F10" s="15">
+        <v>5.05</v>
+      </c>
+      <c r="G10">
+        <v>0.1532</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="6">
+        <v>2015</v>
+      </c>
+      <c r="B11" s="11">
+        <v>2700</v>
+      </c>
+      <c r="C11" s="12">
+        <v>18746808</v>
+      </c>
+      <c r="D11" s="8">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="E11">
+        <v>0.18659999999999999</v>
+      </c>
+      <c r="F11" s="15">
+        <v>5.04</v>
+      </c>
+      <c r="G11">
+        <v>-0.12130000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="6">
+        <v>2014</v>
+      </c>
+      <c r="B12" s="11">
+        <v>2580</v>
+      </c>
+      <c r="C12" s="11">
+        <v>16913546</v>
+      </c>
+      <c r="D12" s="8">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="E12">
+        <v>0.18779999999999999</v>
+      </c>
+      <c r="F12" s="14">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>0.2228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="6">
+        <v>2013</v>
+      </c>
+      <c r="B13" s="11">
+        <v>1960</v>
+      </c>
+      <c r="C13" s="12">
+        <v>14312252</v>
+      </c>
+      <c r="D13" s="8">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="E13">
+        <v>0.1782</v>
+      </c>
+      <c r="F13" s="15">
+        <v>5.09</v>
+      </c>
+      <c r="G13">
+        <v>-9.7999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="6">
+        <v>2012</v>
+      </c>
+      <c r="B14" s="11">
+        <v>2280</v>
+      </c>
+      <c r="C14" s="11">
+        <v>12849271</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="E14">
+        <v>0.1852</v>
+      </c>
+      <c r="F14" s="15">
+        <v>5.08</v>
+      </c>
+      <c r="G14">
+        <v>0.12939999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="6">
+        <v>2011</v>
+      </c>
+      <c r="B15" s="11">
+        <v>2220</v>
+      </c>
+      <c r="C15" s="11">
+        <v>10729190</v>
+      </c>
+      <c r="D15" s="8">
+        <v>6.2E-2</v>
+      </c>
+      <c r="E15">
+        <v>0.18720000000000001</v>
+      </c>
+      <c r="F15" s="14">
+        <v>5.3</v>
+      </c>
+      <c r="G15">
+        <v>3.2099999999999997E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BBCA_Financial_Data.xlsx
+++ b/BBCA_Financial_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/42b15deed5b5fc69/Desktop/Almas_Final_Project-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="370" documentId="8_{E4FA3716-1516-4087-AE4B-343A4641CED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A57C007-1C41-4677-905C-0B7A2F93ED6A}"/>
+  <xr:revisionPtr revIDLastSave="372" documentId="8_{E4FA3716-1516-4087-AE4B-343A4641CED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45B2D829-A910-4ECD-8564-29A9291773F0}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{703FF88A-533F-4B9C-B92B-C8B5D07CA1AB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{703FF88A-533F-4B9C-B92B-C8B5D07CA1AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,13 +50,13 @@
     <t>ROE</t>
   </si>
   <si>
-    <t>NIM</t>
-  </si>
-  <si>
     <t>DEBT_TO_EQUITY</t>
   </si>
   <si>
     <t>MARKET_INDEX_RETURN</t>
+  </si>
+  <si>
+    <t>NET_INTEREST_MARGIN</t>
   </si>
 </sst>
 </file>
@@ -521,15 +521,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E8DEB3-5744-460A-9FD1-2346A8474299}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="12.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" customWidth="1"/>
+    <col min="4" max="4" width="20.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.08984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.453125" bestFit="1" customWidth="1"/>
@@ -546,16 +546,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">

--- a/BBCA_Financial_Data.xlsx
+++ b/BBCA_Financial_Data.xlsx
@@ -522,7 +522,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/BBCA_Financial_Data.xlsx
+++ b/BBCA_Financial_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/42b15deed5b5fc69/Desktop/Almas_Final_Project-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="372" documentId="8_{E4FA3716-1516-4087-AE4B-343A4641CED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45B2D829-A910-4ECD-8564-29A9291773F0}"/>
+  <xr:revisionPtr revIDLastSave="384" documentId="8_{E4FA3716-1516-4087-AE4B-343A4641CED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9728B6B7-C6F0-4D5F-B2BE-5F6DD4ACD454}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{703FF88A-533F-4B9C-B92B-C8B5D07CA1AB}"/>
   </bookViews>
@@ -53,10 +53,10 @@
     <t>DEBT_TO_EQUITY</t>
   </si>
   <si>
-    <t>MARKET_INDEX_RETURN</t>
+    <t>NET_INTEREST_MARGIN</t>
   </si>
   <si>
-    <t>NET_INTEREST_MARGIN</t>
+    <t>MARKET_INDEX_RETURN</t>
   </si>
 </sst>
 </file>
@@ -522,7 +522,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -546,7 +546,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -555,7 +555,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
